--- a/帮战标准表格.xlsx
+++ b/帮战标准表格.xlsx
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
   <si>
     <t>煌煌</t>
   </si>
   <si>
-    <t>邱少</t>
-  </si>
-  <si>
     <t>机智勇敢的小猪</t>
   </si>
   <si>
@@ -55,57 +52,33 @@
     <t>其实想玩刀客</t>
   </si>
   <si>
-    <t>言柳</t>
-  </si>
-  <si>
     <t>任离流</t>
   </si>
   <si>
     <t>机智勇敢的小兔</t>
   </si>
   <si>
-    <t>守护锋</t>
-  </si>
-  <si>
     <t>墨韵轩华</t>
   </si>
   <si>
     <t>等我出轻语</t>
   </si>
   <si>
-    <t>机智勇敢的小吊</t>
-  </si>
-  <si>
     <t>一抹煙雨落繁華</t>
   </si>
   <si>
     <t>奶小牛丶</t>
   </si>
   <si>
-    <t>乐璟</t>
-  </si>
-  <si>
-    <t>为君丶祭酒</t>
-  </si>
-  <si>
     <t>诸天花雨</t>
   </si>
   <si>
-    <t>小阿淮呀</t>
-  </si>
-  <si>
     <t>蘃</t>
   </si>
   <si>
-    <t>古巷烟雨断桥殇</t>
-  </si>
-  <si>
     <t>我是小官人</t>
   </si>
   <si>
-    <t>全城竟是小白兔</t>
-  </si>
-  <si>
     <t>池小晚</t>
   </si>
   <si>
@@ -115,24 +88,12 @@
     <t>′浪浪</t>
   </si>
   <si>
-    <t>怒怒怒怒火</t>
-  </si>
-  <si>
     <t>洪时雪</t>
   </si>
   <si>
-    <t>一曲天涯梦未远</t>
-  </si>
-  <si>
-    <t>等风与你</t>
-  </si>
-  <si>
     <t>叶菡</t>
   </si>
   <si>
-    <t>叁岁丶</t>
-  </si>
-  <si>
     <t>墨萧炎</t>
   </si>
   <si>
@@ -151,9 +112,6 @@
     <t>求和项:ASS</t>
   </si>
   <si>
-    <t>万心忧</t>
-  </si>
-  <si>
     <t>再见是否红着脸</t>
   </si>
   <si>
@@ -163,58 +121,229 @@
     <t>树儿高高长</t>
   </si>
   <si>
-    <t>安好晴天</t>
-  </si>
-  <si>
     <t>太极至尊</t>
   </si>
   <si>
-    <t>五六柒</t>
-  </si>
-  <si>
-    <t>潇湘灬墨染</t>
-  </si>
-  <si>
-    <t>青城爱未恋</t>
-  </si>
-  <si>
     <t>荡荡</t>
   </si>
   <si>
     <t>Yennefer</t>
   </si>
   <si>
-    <t>殇月未觞</t>
-  </si>
-  <si>
     <t>城南穷鬼赵四</t>
   </si>
   <si>
-    <t>唯美0</t>
-  </si>
-  <si>
-    <t>倾舞情儿</t>
-  </si>
-  <si>
-    <t>关翔予</t>
-  </si>
-  <si>
     <t>纯洁友善的殇</t>
   </si>
   <si>
-    <t>知南茶清</t>
-  </si>
-  <si>
     <t>帅气无敌康爸爸</t>
   </si>
   <si>
-    <t>山高丶木易</t>
-  </si>
-  <si>
-    <t>章鱼宝宝</t>
-  </si>
-  <si>
     <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>时钟轻摇孤独</t>
+  </si>
+  <si>
+    <t>一直梨花压海棠</t>
+  </si>
+  <si>
+    <t>浪迹小秦</t>
+  </si>
+  <si>
+    <t>老滚</t>
+  </si>
+  <si>
+    <t>吕小栋</t>
+  </si>
+  <si>
+    <t>折扇浪漫</t>
+  </si>
+  <si>
+    <t>颓废老男人</t>
+  </si>
+  <si>
+    <t>秦友善。</t>
+  </si>
+  <si>
+    <t>青丝枫凌</t>
+  </si>
+  <si>
+    <t>娇软の小屁股</t>
+  </si>
+  <si>
+    <t>我是天香的啊</t>
+  </si>
+  <si>
+    <t>他们不让玩0</t>
+  </si>
+  <si>
+    <t>灬醉丨雲嫣</t>
+  </si>
+  <si>
+    <t>方得始終</t>
+  </si>
+  <si>
+    <t>爱哭鼻の阿木木</t>
+  </si>
+  <si>
+    <t>淺笙</t>
+  </si>
+  <si>
+    <t>亲爱的未闻花名</t>
+  </si>
+  <si>
+    <t>蚩尤魔人</t>
+  </si>
+  <si>
+    <t>艾尔艾路弗</t>
+  </si>
+  <si>
+    <t>机智勇敢的小炮</t>
+  </si>
+  <si>
+    <t>咸鱼0</t>
+  </si>
+  <si>
+    <t>旧人谙</t>
+  </si>
+  <si>
+    <t>姬如影</t>
+  </si>
+  <si>
+    <t>ParTing丶R</t>
+  </si>
+  <si>
+    <t>春晴</t>
+  </si>
+  <si>
+    <t>紫雨幽雲</t>
+  </si>
+  <si>
+    <t>空虚公子萧四无</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>东风路三狗蛋</t>
+  </si>
+  <si>
+    <t>魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>青骢绝骑塑天荒</t>
+  </si>
+  <si>
+    <t>在下唐银</t>
+  </si>
+  <si>
+    <t>凡哥的祖父</t>
+  </si>
+  <si>
+    <t>开封拍卖行</t>
+  </si>
+  <si>
+    <t>紫舞流年</t>
+  </si>
+  <si>
+    <t>框框</t>
+  </si>
+  <si>
+    <t>瑾年ゝ</t>
+  </si>
+  <si>
+    <t>唐舞桐灬</t>
+  </si>
+  <si>
+    <t>蝶舞旧梦</t>
+  </si>
+  <si>
+    <t>追风少年鹰老七</t>
+  </si>
+  <si>
+    <t>纯洁友善的暮夏</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>木易丶凝烟</t>
+  </si>
+  <si>
+    <t>月牙冲天</t>
+  </si>
+  <si>
+    <t>丐帮萌主</t>
+  </si>
+  <si>
+    <t>阿翔翔</t>
+  </si>
+  <si>
+    <t>彡电竞丿柯南乄</t>
+  </si>
+  <si>
+    <t>董锋</t>
+  </si>
+  <si>
+    <t>涵涵小公举</t>
+  </si>
+  <si>
+    <t>七情剑伶慕容英</t>
+  </si>
+  <si>
+    <t>何月凡</t>
+  </si>
+  <si>
+    <t>梦呓ゝ</t>
+  </si>
+  <si>
+    <t>大叔别跑啊</t>
+  </si>
+  <si>
+    <t>沐浠尘</t>
+  </si>
+  <si>
+    <t>成溪</t>
+  </si>
+  <si>
+    <t>白芹</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>晓月梦澈</t>
+  </si>
+  <si>
+    <t>乌莲娜</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>一人一枪闯九州</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>丿Muc丨君丶陌</t>
+  </si>
+  <si>
+    <t>古手梨花sama</t>
+  </si>
+  <si>
+    <t>甄心</t>
+  </si>
+  <si>
+    <t>在下唐言</t>
+  </si>
+  <si>
+    <t>陌丶羽殇</t>
+  </si>
+  <si>
+    <t>＊团灭专用奶</t>
   </si>
 </sst>
 </file>
@@ -281,32 +410,40 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42477.833769560188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42505.005790509262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="80">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C103" sheet="帮战总榜"/>
+    <worksheetSource ref="A1:C106" sheet="帮战总榜"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="20">
+        <s v="时钟轻摇孤独"/>
+        <s v="一直梨花压海棠"/>
+        <s v="机智勇敢的小猪"/>
         <s v="零拾"/>
-        <s v="为君丶祭酒"/>
-        <s v="机智勇敢的小猪"/>
-        <s v="古巷烟雨断桥殇"/>
+        <s v="蘃"/>
         <s v="我是小官人"/>
+        <s v="浪迹小秦"/>
+        <s v="老滚"/>
+        <s v="城南穷鬼赵四"/>
+        <s v="吕小栋"/>
+        <s v="折扇浪漫"/>
+        <s v="颓废老男人"/>
+        <s v="秦友善。"/>
+        <s v="青丝枫凌"/>
+        <s v="娇软の小屁股"/>
         <s v="巡山的人"/>
-        <s v="小阿淮呀"/>
-        <s v="城南穷鬼赵四"/>
-        <s v="机智勇敢的小吊"/>
-        <s v="唯美0"/>
-        <s v="蘃"/>
+        <s v="我是天香的啊"/>
+        <s v="他们不让玩0"/>
+        <s v="灬醉丨雲嫣"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="KILL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
     <cacheField name="ASS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -318,34 +455,41 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42477.833769907411" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42505.005791435186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:G103" sheet="帮战总榜"/>
+    <worksheetSource ref="E1:G106" sheet="帮战总榜"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
+      <sharedItems containsBlank="1" count="21">
+        <s v="方得始終"/>
+        <s v="任离流"/>
+        <s v="墨韵轩华"/>
+        <s v="太极至尊"/>
         <s v="诸天花雨"/>
-        <s v="墨韵轩华"/>
+        <s v="爱哭鼻の阿木木"/>
+        <s v="淺笙"/>
         <s v="丿几度度丶"/>
-        <s v="怒怒怒怒火"/>
-        <s v="倾舞情儿"/>
-        <s v="再见是否红着脸"/>
-        <s v="全城竟是小白兔"/>
-        <s v="任离流"/>
-        <s v="万心忧"/>
         <s v="冷晓汐丶"/>
+        <s v="亲爱的未闻花名"/>
+        <s v="池小晚"/>
         <s v="′浪浪"/>
-        <s v="池小晚"/>
-        <s v="太极至尊"/>
+        <s v="蚩尤魔人"/>
+        <s v="艾尔艾路弗"/>
+        <s v="机智勇敢的小炮"/>
+        <s v="咸鱼0"/>
+        <s v="旧人谙"/>
+        <s v="姬如影"/>
+        <s v="ParTing丶R"/>
+        <s v="春晴"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="KILL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="ASS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -357,41 +501,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42477.833770138888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42505.005791898147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106">
   <cacheSource type="worksheet">
-    <worksheetSource ref="I1:K105" sheet="帮战总榜"/>
+    <worksheetSource ref="I1:K107" sheet="帮战总榜"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
-        <s v="关翔予"/>
-        <s v="五六柒"/>
-        <s v="等风与你"/>
-        <s v="潇湘灬墨染"/>
+      <sharedItems count="39">
+        <s v="洪时雪"/>
+        <s v="紫雨幽雲"/>
+        <s v="煌煌"/>
+        <s v="其实想玩刀客"/>
+        <s v="荡荡"/>
+        <s v="空虚公子萧四无"/>
+        <s v="落花丶醉"/>
+        <s v="东风路三狗蛋"/>
         <s v="潇洒仗剑天下"/>
+        <s v="魔法少女杜芸松"/>
+        <s v="青骢绝骑塑天荒"/>
+        <s v="在下唐银"/>
+        <s v="凡哥的祖父"/>
+        <s v="开封拍卖行"/>
+        <s v="奶小牛丶"/>
+        <s v="紫舞流年"/>
+        <s v="框框"/>
+        <s v="叶菡"/>
+        <s v="瑾年ゝ"/>
         <s v="纯洁友善的殇"/>
-        <s v="殇月未觞"/>
-        <s v="煌煌"/>
-        <s v="洪时雪"/>
-        <s v="其实想玩刀客"/>
-        <s v="叶菡"/>
-        <s v="荡荡"/>
+        <s v="唐舞桐灬"/>
+        <s v="等我出轻语"/>
+        <s v="蝶舞旧梦"/>
+        <s v="追风少年鹰老七"/>
         <s v="Yennefer"/>
-        <s v="知南茶清"/>
-        <s v="一曲天涯梦未远"/>
+        <s v="纯洁友善的暮夏"/>
+        <s v="一丿登"/>
+        <s v="木易丶凝烟"/>
+        <s v="月牙冲天"/>
+        <s v="丐帮萌主"/>
+        <s v="阿翔翔"/>
+        <s v="彡电竞丿柯南乄"/>
+        <s v="董锋"/>
         <s v="帅气无敌康爸爸"/>
-        <s v="等我出轻语"/>
-        <s v="奶小牛丶"/>
-        <s v="山高丶木易"/>
-        <s v="青城爱未恋"/>
-        <m/>
+        <s v="涵涵小公举"/>
+        <s v="七情剑伶慕容英"/>
+        <s v="何月凡"/>
+        <s v="梦呓ゝ"/>
+        <s v="大叔别跑啊"/>
       </sharedItems>
     </cacheField>
     <cacheField name="KILL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="ASS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="19"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -403,35 +565,44 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42477.833770370373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42505.005792129632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="M1:O104" sheet="帮战总榜"/>
+    <worksheetSource ref="M1:O106" sheet="帮战总榜"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="15">
-        <s v="乐璟"/>
+      <sharedItems containsBlank="1" count="24">
         <s v="鱼香"/>
+        <s v="沐浠尘"/>
+        <s v="墨萧炎"/>
+        <s v="成溪"/>
+        <s v="陌路莫回"/>
+        <s v="一抹煙雨落繁華"/>
         <s v="树儿高高长"/>
-        <s v="叁岁丶"/>
-        <s v="陌路莫回"/>
-        <s v="墨萧炎"/>
-        <s v="邱少"/>
-        <s v="安好晴天"/>
-        <s v="一抹煙雨落繁華"/>
-        <s v="章鱼宝宝"/>
+        <s v="白芹"/>
+        <s v="FateLibra"/>
+        <s v="晓月梦澈"/>
+        <s v="乌莲娜"/>
+        <s v="胡大力"/>
+        <s v="一人一枪闯九州"/>
+        <s v="＊下水道的白"/>
+        <s v="FateScorpio"/>
+        <s v="丿Muc丨君丶陌"/>
+        <s v="古手梨花sama"/>
         <s v="机智勇敢的小兔"/>
-        <s v="言柳"/>
-        <s v="守护锋"/>
-        <s v="FateScorpio"/>
+        <s v="甄心"/>
+        <s v="在下唐言"/>
+        <s v="陌丶羽殇"/>
+        <s v="再见是否红着脸"/>
+        <s v="＊团灭专用奶"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="KILL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="ASS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="23"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -443,46 +614,336 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="80">
   <r>
     <x v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
     <n v="4"/>
-    <n v="17"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="1"/>
     <n v="1"/>
-    <n v="13"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
     <n v="10"/>
   </r>
   <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
     <n v="7"/>
   </r>
   <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
     <x v="4"/>
-    <n v="0"/>
-    <n v="10"/>
+    <n v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="5"/>
     <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
     <n v="3"/>
   </r>
   <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="6"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -490,277 +951,67 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="9"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="11"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
     <m/>
     <m/>
   </r>
@@ -771,531 +1022,531 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="106">
   <r>
     <x v="0"/>
-    <n v="1"/>
-    <n v="19"/>
+    <n v="3"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="2"/>
-    <n v="16"/>
+    <n v="1"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
-    <n v="14"/>
+    <n v="0"/>
+    <n v="11"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0"/>
-    <n v="15"/>
+    <n v="1"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2"/>
+    <n v="0"/>
     <n v="8"/>
   </r>
   <r>
     <x v="5"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
     <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
+    <x v="9"/>
+    <n v="0"/>
     <n v="4"/>
   </r>
   <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
     <x v="8"/>
     <n v="0"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="0"/>
     <n v="3"/>
-    <n v="14"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="1"/>
     <n v="1"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
     <n v="2"/>
   </r>
   <r>
     <x v="6"/>
     <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="5"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="7"/>
     <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="13"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
     <m/>
     <m/>
   </r>
@@ -1307,775 +1558,1015 @@
   <r>
     <x v="0"/>
     <n v="3"/>
-    <n v="14"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <n v="3"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="9"/>
+    <n v="13"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
     <n v="4"/>
     <n v="10"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="2"/>
+    <x v="13"/>
     <n v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
     <n v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="19"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="3"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="96">
   <r>
     <x v="0"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
     <n v="4"/>
-    <n v="20"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="7"/>
   </r>
   <r>
     <x v="1"/>
     <n v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1"/>
     <n v="6"/>
   </r>
   <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
     <x v="2"/>
-    <n v="1"/>
-    <n v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="5"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="2"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="8"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="8"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
     <n v="0"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="14"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
     <m/>
     <m/>
   </r>
@@ -2084,25 +2575,34 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="何梦统计" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M1:O17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M1:O26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
+      <items count="25">
         <item x="13"/>
+        <item x="22"/>
         <item x="8"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="4"/>
         <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="14"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2112,7 +2612,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -2157,6 +2657,33 @@
     </i>
     <i>
       <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -2188,31 +2715,49 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="若梦统计" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:K23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I1:K41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
+      <items count="40">
+        <item x="24"/>
+        <item x="26"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="36"/>
+        <item x="3"/>
         <item x="12"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="38"/>
         <item x="14"/>
+        <item x="33"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="16"/>
+        <item x="37"/>
+        <item x="0"/>
+        <item x="34"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="15"/>
         <item x="1"/>
-        <item x="0"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="10"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="19"/>
-        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2222,7 +2767,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="40">
     <i>
       <x/>
     </i>
@@ -2285,6 +2830,60 @@
     </i>
     <i>
       <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
     </i>
     <i t="grand">
       <x/>
@@ -2316,24 +2915,31 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="如梦统计" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="E1:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="22">
+        <item x="11"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="14"/>
         <item x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
         <item x="6"/>
         <item x="5"/>
-        <item x="9"/>
-        <item x="1"/>
+        <item x="13"/>
         <item x="12"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="13"/>
+        <item x="4"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2343,7 +2949,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="22">
     <i>
       <x/>
     </i>
@@ -2385,6 +2991,27 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -2416,22 +3043,30 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="逐梦统计" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="21">
         <item x="1"/>
-        <item x="3"/>
+        <item x="17"/>
         <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
         <item x="10"/>
         <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="13"/>
         <item x="11"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2441,7 +3076,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -2477,6 +3112,30 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -2772,8 +3431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q20:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,68 +3449,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J1" s="5">
         <v>2</v>
       </c>
       <c r="K1" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4">
-        <v>4</v>
-      </c>
-      <c r="O1" s="4">
-        <v>33</v>
+        <v>99</v>
+      </c>
+      <c r="N1" s="5">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -2861,18 +3517,18 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N2" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2882,478 +3538,671 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J3" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="N3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J4" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="N5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="J6" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J7" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K7" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="O7" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="N8" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8" s="5">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
         <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>59</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>28</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="N11" s="4">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="J12" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N12" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O12" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="N13" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="K14" s="5">
-        <v>22</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="5">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="O15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>28</v>
+      </c>
       <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="J17" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="4">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11</v>
+      </c>
       <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <v>5</v>
       </c>
-      <c r="K18" s="4">
-        <v>35</v>
-      </c>
       <c r="L18" s="1"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
       <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -3362,136 +4211,336 @@
         <v>13</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="5">
+        <v>4</v>
+      </c>
+      <c r="O19" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>267</v>
+      </c>
       <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>29</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5">
+        <v>56</v>
+      </c>
+      <c r="G21" s="5">
+        <v>229</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7</v>
+      </c>
+      <c r="K21" s="4">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="5">
         <v>2</v>
       </c>
-      <c r="K20" s="4">
-        <v>6</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>6</v>
+      </c>
+      <c r="K23" s="4">
+        <v>38</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="M23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3</v>
+      </c>
+      <c r="O23" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>6</v>
+      </c>
+      <c r="K24" s="4">
+        <v>28</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="5">
+        <v>49</v>
+      </c>
+      <c r="O24" s="5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>9</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>17</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>17</v>
+      </c>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="I28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>19</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="4">
+        <v>8</v>
+      </c>
+      <c r="K29" s="4">
+        <v>46</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>9</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>18</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>16</v>
+      </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="4">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4">
+        <v>9</v>
+      </c>
       <c r="L33" s="1"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>11</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3499,6 +4548,15 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>10</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3506,26 +4564,53 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>4</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="1"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="I38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>9</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="I39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="5">
+        <v>5</v>
+      </c>
+      <c r="K39" s="5">
+        <v>24</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3537,15 +4622,20 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="I40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="5">
+        <v>93</v>
+      </c>
+      <c r="K40" s="5">
+        <v>515</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3555,6 +4645,8 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3571,8 +4663,6 @@
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
@@ -3596,8 +4686,6 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
       <c r="H46" s="1"/>
       <c r="L46" s="1"/>
     </row>
@@ -3613,15 +4701,6 @@
       <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -3629,15 +4708,6 @@
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>3</v>
-      </c>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -3645,31 +4715,15 @@
       <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>3</v>
-      </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>2</v>
-      </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -3679,15 +4733,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5">
-        <v>2</v>
-      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -3697,15 +4744,8 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -3715,15 +4755,6 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -3733,15 +4764,6 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="4">
-        <v>5</v>
-      </c>
-      <c r="K55" s="4">
-        <v>13</v>
-      </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -3751,15 +4773,6 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <v>19</v>
-      </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -3769,15 +4782,6 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="4">
-        <v>3</v>
-      </c>
-      <c r="K57" s="4">
-        <v>8</v>
-      </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -3787,15 +4791,6 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="4">
-        <v>2</v>
-      </c>
-      <c r="K58" s="4">
-        <v>11</v>
-      </c>
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -3805,33 +4800,15 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="4">
-        <v>2</v>
-      </c>
-      <c r="K59" s="4">
-        <v>10</v>
-      </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
       <c r="D60" s="1"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
-        <v>2</v>
-      </c>
-      <c r="K60" s="5">
-        <v>8</v>
-      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -3839,15 +4816,8 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J61" s="5">
-        <v>2</v>
-      </c>
-      <c r="K61" s="5">
-        <v>8</v>
-      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -3855,15 +4825,8 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="5">
-        <v>2</v>
-      </c>
-      <c r="K62" s="5">
-        <v>7</v>
-      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -3871,15 +4834,8 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5">
-        <v>10</v>
-      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -3887,15 +4843,6 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="4">
-        <v>5</v>
-      </c>
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.25">
@@ -3903,15 +4850,6 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>5</v>
-      </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.25">
@@ -3919,15 +4857,8 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="5">
-        <v>2</v>
-      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.25">
@@ -3935,15 +4866,8 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <v>4</v>
-      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="4:12" x14ac:dyDescent="0.25">
@@ -3951,15 +4875,8 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="5">
-        <v>1</v>
-      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="4:12" x14ac:dyDescent="0.25">
@@ -3967,15 +4884,8 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0</v>
-      </c>
-      <c r="K69" s="5">
-        <v>4</v>
-      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.25">
@@ -3983,15 +4893,8 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5">
-        <v>4</v>
-      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.25">
@@ -3999,59 +4902,29 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71" s="5">
-        <v>1</v>
-      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0</v>
-      </c>
-      <c r="K72" s="5">
-        <v>1</v>
-      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73" s="5">
-        <v>1</v>
-      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0</v>
-      </c>
-      <c r="K74" s="5">
-        <v>1</v>
-      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.25">
@@ -4926,7 +5799,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="I38" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="O50" sqref="M2:O50"/>
     </sheetView>
   </sheetViews>
@@ -4938,7 +5811,7 @@
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
@@ -4948,101 +5821,99 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
       </c>
       <c r="K2" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -5051,537 +5922,642 @@
         <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
       <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2">
-        <v>14</v>
-      </c>
       <c r="K4" s="2">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
         <v>8</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>16</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="2">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
       <c r="K8" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
       </c>
       <c r="O8" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="M9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
       <c r="G10" s="2">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>9</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>61</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N13" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O13" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>41</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="2">
-        <v>4</v>
-      </c>
-      <c r="O15" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2">
-        <v>326</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <v>7</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="2">
-        <v>41</v>
-      </c>
-      <c r="O17" s="2">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2">
-        <v>35</v>
+      <c r="M18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="2">
+        <v>7</v>
+      </c>
+      <c r="O18" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="2">
-        <v>35</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -5589,65 +6565,115 @@
       <c r="K20" s="2">
         <v>13</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>29</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>6</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <v>267</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2">
+        <v>34</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2">
+        <v>229</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>440</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -5656,12 +6682,24 @@
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -5670,10 +6708,18 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2">
+        <v>28</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
@@ -5684,12 +6730,24 @@
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2">
+        <v>49</v>
+      </c>
+      <c r="O26" s="2">
+        <v>321</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -5698,9 +6756,15 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>17</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5712,9 +6776,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>17</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5726,9 +6796,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>19</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5740,9 +6816,15 @@
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>46</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5754,9 +6836,15 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>9</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5768,9 +6856,15 @@
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>18</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5782,9 +6876,15 @@
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>16</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5796,9 +6896,15 @@
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2">
+        <v>9</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5810,9 +6916,15 @@
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5824,9 +6936,15 @@
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>11</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5838,9 +6956,15 @@
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>10</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5852,9 +6976,15 @@
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>4</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5866,9 +6996,15 @@
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="I39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5880,9 +7016,15 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="I40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>24</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5894,9 +7036,15 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="I41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" s="2">
+        <v>515</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>

--- a/帮战标准表格.xlsx
+++ b/帮战标准表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="帮战总榜" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,102 @@
   </si>
   <si>
     <t>ASS</t>
+  </si>
+  <si>
+    <t>沐伯乾</t>
+  </si>
+  <si>
+    <t>浪琴</t>
+  </si>
+  <si>
+    <t>零拾</t>
+  </si>
+  <si>
+    <t>浪迹小秦</t>
+  </si>
+  <si>
+    <t>江湖多寂莫丶人</t>
+  </si>
+  <si>
+    <t>明年今日奕十年</t>
+  </si>
+  <si>
+    <t>墨韵轩华</t>
+  </si>
+  <si>
+    <t>余子乔丶</t>
+  </si>
+  <si>
+    <t>俱利摩</t>
+  </si>
+  <si>
+    <t>蛋蛋疍</t>
+  </si>
+  <si>
+    <t>√蓝莓巧克力丶</t>
+  </si>
+  <si>
+    <t>紫雨幽雲</t>
+  </si>
+  <si>
+    <t>其实想玩刀客</t>
+  </si>
+  <si>
+    <t>空虚公子萧四无</t>
+  </si>
+  <si>
+    <t>冷晓汐丶</t>
+  </si>
+  <si>
+    <t>墨炽</t>
+  </si>
+  <si>
+    <t>年瑾倾城玉蝴蝶</t>
+  </si>
+  <si>
+    <t>顾寻清</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>煌煌</t>
+  </si>
+  <si>
+    <t>关翔予</t>
+  </si>
+  <si>
+    <t>冉灬子墨</t>
+  </si>
+  <si>
+    <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>执劍小书生</t>
+  </si>
+  <si>
+    <t>墨萧炎</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>神威司空阿龙</t>
+  </si>
+  <si>
+    <t>鱼香</t>
+  </si>
+  <si>
+    <t>逆天懵</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>花谢人凋零。</t>
   </si>
 </sst>
 </file>
@@ -356,8 +452,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,140 +507,1062 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3">
+        <v>17</v>
+      </c>
+      <c r="O10" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1">
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>59</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3">
+        <v>38</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>12</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="1">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1">
+        <v>46</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3">
+        <v>18</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1">
+        <v>15</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>12</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
@@ -553,8 +1571,15 @@
       <c r="C37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
@@ -984,8 +2009,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/帮战标准表格.xlsx
+++ b/帮战标准表格.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -31,100 +31,40 @@
     <t>ASS</t>
   </si>
   <si>
-    <t>沐伯乾</t>
-  </si>
-  <si>
-    <t>浪琴</t>
-  </si>
-  <si>
-    <t>零拾</t>
-  </si>
-  <si>
-    <t>浪迹小秦</t>
-  </si>
-  <si>
-    <t>江湖多寂莫丶人</t>
-  </si>
-  <si>
-    <t>明年今日奕十年</t>
-  </si>
-  <si>
-    <t>墨韵轩华</t>
-  </si>
-  <si>
-    <t>余子乔丶</t>
-  </si>
-  <si>
-    <t>俱利摩</t>
-  </si>
-  <si>
-    <t>蛋蛋疍</t>
-  </si>
-  <si>
-    <t>√蓝莓巧克力丶</t>
-  </si>
-  <si>
-    <t>紫雨幽雲</t>
-  </si>
-  <si>
     <t>其实想玩刀客</t>
-  </si>
-  <si>
-    <t>空虚公子萧四无</t>
-  </si>
-  <si>
-    <t>冷晓汐丶</t>
   </si>
   <si>
     <t>墨炽</t>
   </si>
   <si>
-    <t>年瑾倾城玉蝴蝶</t>
+    <t>叶菡</t>
   </si>
   <si>
-    <t>顾寻清</t>
+    <t>青羽墨染云</t>
   </si>
   <si>
-    <t>落花丶醉</t>
+    <t>苍镜</t>
   </si>
   <si>
-    <t>煌煌</t>
+    <t>丶吴宇森</t>
   </si>
   <si>
-    <t>关翔予</t>
+    <t>那年今若、</t>
   </si>
   <si>
-    <t>冉灬子墨</t>
+    <t>入梦落樱满熏香</t>
   </si>
   <si>
-    <t>FateScorpio</t>
+    <t>东风路三狗蛋</t>
   </si>
   <si>
-    <t>执劍小书生</t>
+    <t>月下魂兮</t>
   </si>
   <si>
-    <t>墨萧炎</t>
+    <t>青城爱未恋</t>
   </si>
   <si>
-    <t>男人应有的自豪</t>
-  </si>
-  <si>
-    <t>神威司空阿龙</t>
-  </si>
-  <si>
-    <t>鱼香</t>
-  </si>
-  <si>
-    <t>逆天懵</t>
-  </si>
-  <si>
-    <t>胡大力</t>
-  </si>
-  <si>
-    <t>FateLibra</t>
-  </si>
-  <si>
-    <t>花谢人凋零。</t>
+    <t>此情珂待</t>
   </si>
 </sst>
 </file>
@@ -452,8 +392,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,1062 +447,357 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
-        <v>90</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3">
-        <v>61</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5</v>
-      </c>
-      <c r="O3" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3">
-        <v>6</v>
-      </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="3">
-        <v>17</v>
-      </c>
-      <c r="O10" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="1">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="1">
+      <c r="J19" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1">
-        <v>13</v>
-      </c>
-      <c r="K12" s="1">
-        <v>43</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" s="3">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
-        <v>16</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>7</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
-        <v>59</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>8</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>4</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="1">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="3">
-        <v>22</v>
-      </c>
-      <c r="K21" s="3">
-        <v>38</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>12</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
-        <v>9</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <v>8</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="I25" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="I27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="1">
-        <v>17</v>
-      </c>
-      <c r="O28" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1">
-        <v>20</v>
-      </c>
-      <c r="K29" s="1">
-        <v>46</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="1">
-        <v>4</v>
-      </c>
-      <c r="O29" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="3">
-        <v>8</v>
-      </c>
-      <c r="K30" s="3">
-        <v>18</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1">
-        <v>8</v>
-      </c>
-      <c r="K31" s="1">
-        <v>15</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="1">
-        <v>2</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>12</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2</v>
-      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>9</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5</v>
-      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
-        <v>9</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>2</v>
-      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2</v>
-      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
@@ -1571,15 +806,8 @@
       <c r="C37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>

--- a/帮战标准表格.xlsx
+++ b/帮战标准表格.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -2906,474 +2906,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="如梦统计" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="28">
-        <item x="22"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="15"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="25"/>
-        <item x="21"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="逐梦统计" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="31">
-        <item x="25"/>
-        <item x="24"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="27"/>
-        <item x="5"/>
-        <item x="23"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="何梦统计" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M1:O29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="28">
-        <item x="7"/>
-        <item x="8"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="若梦统计" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:K34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -3516,6 +3048,474 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="如梦统计" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E1:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="28">
+        <item x="22"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="25"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="逐梦统计" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="31">
+        <item x="25"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:KILL" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:ASS" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="何梦统计" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M1:O29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="28">
+        <item x="7"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -3812,7 +3812,7 @@
   <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,58 +3899,22 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>81</v>
-      </c>
-      <c r="C2" s="8">
-        <v>567</v>
-      </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D31" si="0">B2*3+C2</f>
-        <v>810</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10">
-        <v>58</v>
-      </c>
-      <c r="H2" s="10">
-        <v>503</v>
-      </c>
-      <c r="I2" s="10">
-        <f t="shared" ref="I2:I27" si="1">G2*3+H2</f>
-        <v>677</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="10">
-        <v>59</v>
-      </c>
-      <c r="M2" s="10">
-        <v>458</v>
-      </c>
-      <c r="N2" s="10">
-        <f t="shared" ref="N2:N33" si="2">L2*3+M2</f>
-        <v>635</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>63</v>
-      </c>
-      <c r="R2" s="10">
-        <v>432</v>
-      </c>
-      <c r="S2" s="10">
-        <f t="shared" ref="S2:S27" si="3">Q2*3+R2</f>
-        <v>621</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="U2" s="6" t="s">
         <v>123</v>
       </c>
@@ -3966,61 +3930,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
-        <v>56</v>
-      </c>
-      <c r="C3" s="8">
-        <v>593</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" si="0"/>
-        <v>761</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3"/>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10">
-        <v>54</v>
-      </c>
-      <c r="H3" s="10">
-        <v>486</v>
-      </c>
-      <c r="I3" s="10">
-        <f t="shared" si="1"/>
-        <v>648</v>
-      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3"/>
-      <c r="K3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="12">
-        <v>56</v>
-      </c>
-      <c r="M3" s="12">
-        <v>399</v>
-      </c>
-      <c r="N3" s="12">
-        <f t="shared" si="2"/>
-        <v>567</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="O3"/>
-      <c r="P3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>39</v>
-      </c>
-      <c r="R3" s="12">
-        <v>426</v>
-      </c>
-      <c r="S3" s="12">
-        <f t="shared" si="3"/>
-        <v>543</v>
-      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
       <c r="U3" s="6" t="s">
         <v>124</v>
       </c>
@@ -4036,61 +3964,25 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="12">
-        <v>54</v>
-      </c>
-      <c r="C4" s="12">
-        <v>357</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>519</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4"/>
-      <c r="F4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="12">
-        <v>56</v>
-      </c>
-      <c r="H4" s="12">
-        <v>385</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="1"/>
-        <v>553</v>
-      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4"/>
-      <c r="K4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="12">
-        <v>48</v>
-      </c>
-      <c r="M4" s="12">
-        <v>394</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" si="2"/>
-        <v>538</v>
-      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
       <c r="O4"/>
-      <c r="P4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>52</v>
-      </c>
-      <c r="R4" s="12">
-        <v>380</v>
-      </c>
-      <c r="S4" s="12">
-        <f t="shared" si="3"/>
-        <v>536</v>
-      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
       <c r="U4" s="6" t="s">
         <v>125</v>
       </c>
@@ -4106,61 +3998,25 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="14">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14">
-        <v>266</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>407</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5"/>
-      <c r="F5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12">
-        <v>28</v>
-      </c>
-      <c r="H5" s="12">
-        <v>446</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5"/>
-      <c r="K5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="14">
-        <v>35</v>
-      </c>
-      <c r="M5" s="14">
-        <v>370</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" si="2"/>
-        <v>475</v>
-      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5"/>
-      <c r="P5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>48</v>
-      </c>
-      <c r="R5" s="14">
-        <v>335</v>
-      </c>
-      <c r="S5" s="14">
-        <f t="shared" si="3"/>
-        <v>479</v>
-      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
       <c r="U5" s="6" t="s">
         <v>126</v>
       </c>
@@ -4176,1397 +4032,265 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14">
-        <v>344</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="0"/>
-        <v>407</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6"/>
-      <c r="F6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="14">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14">
-        <v>354</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" si="1"/>
-        <v>477</v>
-      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6"/>
-      <c r="K6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="14">
-        <v>36</v>
-      </c>
-      <c r="M6" s="14">
-        <v>330</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="2"/>
-        <v>438</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6"/>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>42</v>
-      </c>
-      <c r="R6" s="4">
-        <v>242</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="3"/>
-        <v>368</v>
-      </c>
+      <c r="P6"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4">
-        <v>295</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
+      <c r="A7"/>
       <c r="E7"/>
-      <c r="F7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="14">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14">
-        <v>348</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7"/>
-      <c r="K7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="14">
-        <v>40</v>
-      </c>
-      <c r="M7" s="14">
-        <v>310</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="2"/>
-        <v>430</v>
-      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
       <c r="O7"/>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>27</v>
-      </c>
-      <c r="R7" s="4">
-        <v>277</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="3"/>
-        <v>358</v>
-      </c>
+      <c r="P7"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>322</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
+      <c r="A8"/>
       <c r="E8"/>
-      <c r="F8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="14">
-        <v>32</v>
-      </c>
-      <c r="H8" s="14">
-        <v>360</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8"/>
-      <c r="K8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="14">
-        <v>38</v>
-      </c>
-      <c r="M8" s="14">
-        <v>310</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" si="2"/>
-        <v>424</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
       <c r="O8"/>
-      <c r="P8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>29</v>
-      </c>
-      <c r="R8" s="4">
-        <v>222</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="3"/>
-        <v>309</v>
-      </c>
+      <c r="P8"/>
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4">
-        <v>288</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
+      <c r="A9"/>
       <c r="E9"/>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="4">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4">
-        <v>300</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>411</v>
-      </c>
+      <c r="F9"/>
       <c r="J9"/>
-      <c r="K9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="14">
-        <v>50</v>
-      </c>
-      <c r="M9" s="14">
-        <v>274</v>
-      </c>
-      <c r="N9" s="14">
-        <f t="shared" si="2"/>
-        <v>424</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="O9"/>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>30</v>
-      </c>
-      <c r="R9" s="4">
-        <v>171</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="3"/>
-        <v>261</v>
-      </c>
+      <c r="P9"/>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="4">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4">
-        <v>208</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
+      <c r="A10"/>
       <c r="E10"/>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="4">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4">
-        <v>338</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>398</v>
-      </c>
+      <c r="F10"/>
       <c r="J10"/>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="4">
-        <v>53</v>
-      </c>
-      <c r="M10" s="4">
-        <v>240</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>399</v>
-      </c>
+      <c r="K10"/>
       <c r="O10"/>
-      <c r="P10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>23</v>
-      </c>
-      <c r="R10" s="4">
-        <v>180</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="3"/>
-        <v>249</v>
-      </c>
       <c r="U10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4">
-        <v>227</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
+      <c r="A11"/>
       <c r="E11"/>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="4">
-        <v>36</v>
-      </c>
-      <c r="H11" s="4">
-        <v>269</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>377</v>
-      </c>
+      <c r="F11"/>
       <c r="J11"/>
-      <c r="K11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="4">
-        <v>33</v>
-      </c>
-      <c r="M11" s="4">
-        <v>260</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>359</v>
-      </c>
       <c r="O11"/>
-      <c r="P11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4">
-        <v>151</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="3"/>
-        <v>247</v>
-      </c>
+      <c r="P11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4">
-        <v>210</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
+      <c r="A12"/>
       <c r="E12"/>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4">
-        <v>41</v>
-      </c>
-      <c r="H12" s="4">
-        <v>197</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
+      <c r="F12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4">
-        <v>243</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>303</v>
-      </c>
+      <c r="K12"/>
       <c r="O12"/>
-      <c r="P12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>24</v>
-      </c>
-      <c r="R12" s="4">
-        <v>162</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
+      <c r="P12"/>
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="4">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>257</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
+      <c r="A13"/>
       <c r="E13"/>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4">
-        <v>257</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
+      <c r="F13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="4">
-        <v>17</v>
-      </c>
-      <c r="M13" s="4">
-        <v>189</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
+      <c r="K13"/>
       <c r="O13"/>
-      <c r="P13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>20</v>
-      </c>
-      <c r="R13" s="4">
-        <v>147</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
+      <c r="P13"/>
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="4">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4">
-        <v>217</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
+      <c r="A14"/>
       <c r="E14"/>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="4">
-        <v>24</v>
-      </c>
-      <c r="H14" s="4">
-        <v>202</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
+      <c r="F14"/>
       <c r="J14"/>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="4">
-        <v>26</v>
-      </c>
-      <c r="M14" s="4">
-        <v>142</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
+      <c r="K14"/>
       <c r="O14"/>
-      <c r="P14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>17</v>
-      </c>
-      <c r="R14" s="4">
-        <v>155</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
+      <c r="P14"/>
       <c r="U14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>181</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
+      <c r="A15"/>
       <c r="E15"/>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="4">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4">
-        <v>226</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
+      <c r="F15"/>
       <c r="J15"/>
-      <c r="K15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="4">
-        <v>10</v>
-      </c>
-      <c r="M15" s="4">
-        <v>177</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>207</v>
-      </c>
+      <c r="K15"/>
       <c r="O15"/>
-      <c r="P15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>29</v>
-      </c>
-      <c r="R15" s="4">
-        <v>102</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
+      <c r="P15"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
-        <v>231</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
+      <c r="A16"/>
       <c r="E16"/>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4">
-        <v>29</v>
-      </c>
-      <c r="H16" s="4">
-        <v>166</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
+      <c r="F16"/>
       <c r="J16"/>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="4">
-        <v>6</v>
-      </c>
-      <c r="M16" s="4">
-        <v>147</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
+      <c r="K16"/>
       <c r="O16"/>
-      <c r="P16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>17</v>
-      </c>
-      <c r="R16" s="4">
-        <v>126</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
+      <c r="P16"/>
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4">
-        <v>168</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
+      <c r="A17"/>
       <c r="E17"/>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4">
-        <v>218</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
+      <c r="F17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="4">
-        <v>26</v>
-      </c>
-      <c r="M17" s="4">
-        <v>72</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
+      <c r="K17"/>
       <c r="O17"/>
-      <c r="P17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>17</v>
-      </c>
-      <c r="R17" s="4">
-        <v>109</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
+      <c r="P17"/>
       <c r="U17" s="6"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4">
-        <v>149</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
+      <c r="A18"/>
       <c r="E18"/>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="4">
-        <v>16</v>
-      </c>
-      <c r="H18" s="4">
-        <v>138</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
+      <c r="F18"/>
       <c r="J18"/>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="4">
-        <v>15</v>
-      </c>
-      <c r="M18" s="4">
-        <v>103</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
+      <c r="K18"/>
       <c r="O18"/>
-      <c r="P18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>9</v>
-      </c>
-      <c r="R18" s="4">
-        <v>103</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
+      <c r="P18"/>
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>168</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
+      <c r="A19"/>
       <c r="E19"/>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="4">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4">
-        <v>56</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
+      <c r="F19"/>
       <c r="J19"/>
-      <c r="K19" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="4">
-        <v>11</v>
-      </c>
-      <c r="M19" s="4">
-        <v>105</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
+      <c r="K19"/>
       <c r="O19"/>
-      <c r="P19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>15</v>
-      </c>
-      <c r="R19" s="4">
-        <v>80</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
+      <c r="P19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4">
-        <v>172</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
+      <c r="A20"/>
       <c r="E20"/>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4">
-        <v>7</v>
-      </c>
-      <c r="H20" s="4">
-        <v>49</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
+      <c r="F20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="4">
-        <v>8</v>
-      </c>
-      <c r="M20" s="4">
-        <v>93</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+      <c r="K20"/>
       <c r="O20"/>
-      <c r="P20" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4">
-        <v>90</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
+      <c r="P20"/>
       <c r="U20" s="6"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4">
-        <v>105</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
+      <c r="A21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="4">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>48</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
+      <c r="F21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>105</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
+      <c r="K21"/>
       <c r="O21"/>
-      <c r="P21" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>62</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
+      <c r="P21"/>
       <c r="U21" s="6"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>81</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
+      <c r="A22"/>
       <c r="E22"/>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>28</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="F22"/>
       <c r="J22"/>
-      <c r="K22" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="4">
-        <v>8</v>
-      </c>
-      <c r="M22" s="4">
-        <v>81</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
+      <c r="K22"/>
       <c r="O22"/>
-      <c r="P22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>6</v>
-      </c>
-      <c r="R22" s="4">
-        <v>40</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
+      <c r="P22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
+      <c r="A23"/>
       <c r="E23"/>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>25</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="F23"/>
       <c r="J23"/>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="4">
-        <v>9</v>
-      </c>
-      <c r="M23" s="4">
-        <v>58</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
+      <c r="K23"/>
       <c r="O23"/>
-      <c r="P23" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>2</v>
-      </c>
-      <c r="R23" s="4">
-        <v>35</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
+      <c r="P23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>46</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
+      <c r="A24"/>
       <c r="E24"/>
-      <c r="F24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>11</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="J24"/>
-      <c r="K24" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="4">
-        <v>6</v>
-      </c>
-      <c r="M24" s="4">
-        <v>63</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
+      <c r="K24"/>
       <c r="O24"/>
-      <c r="P24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>27</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
+      <c r="P24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4">
-        <v>47</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
+      <c r="A25"/>
       <c r="E25"/>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
+      <c r="F25"/>
       <c r="J25"/>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="4">
-        <v>6</v>
-      </c>
-      <c r="M25" s="4">
-        <v>55</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
+      <c r="K25"/>
       <c r="O25"/>
-      <c r="P25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>5</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
+      <c r="P25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
+      <c r="A26"/>
       <c r="E26"/>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
+      <c r="F26"/>
       <c r="J26"/>
-      <c r="K26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="4">
-        <v>5</v>
-      </c>
-      <c r="M26" s="4">
-        <v>53</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
+      <c r="K26"/>
       <c r="O26"/>
-      <c r="P26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>5</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
+      <c r="P26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="A27"/>
       <c r="E27"/>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>4</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="F27"/>
       <c r="J27"/>
-      <c r="K27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>58</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
+      <c r="K27"/>
       <c r="O27"/>
-      <c r="P27" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>3</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+      <c r="P27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
       <c r="E28"/>
       <c r="J28"/>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>49</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
+      <c r="K28"/>
       <c r="O28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="A29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="J29"/>
-      <c r="K29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4">
-        <v>20</v>
-      </c>
-      <c r="N29" s="4">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
+      <c r="K29"/>
       <c r="O29"/>
       <c r="P29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="A30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="J30"/>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>16</v>
-      </c>
-      <c r="N30" s="4">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
+      <c r="K30"/>
       <c r="O30"/>
       <c r="P30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="J31"/>
-      <c r="K31" t="s">
-        <v>109</v>
-      </c>
-      <c r="L31" s="4">
-        <v>2</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+      <c r="K31"/>
       <c r="O31"/>
       <c r="P31"/>
     </row>
@@ -5576,19 +4300,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32"/>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="K32"/>
       <c r="O32"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -5601,19 +4313,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="K33" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>2</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+      <c r="K33"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
